--- a/Assignment1_1_Summary.xlsx
+++ b/Assignment1_1_Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Feature Name</t>
+          <t>Feature</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Number of Data Points</t>
+          <t>Count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Std Dev</t>
+          <t>Std</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -471,12 +471,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Correlation with Median House Value</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Other Observations</t>
+          <t>Correlation with Target</t>
         </is>
       </c>
     </row>
@@ -496,21 +491,16 @@
         <v>52</v>
       </c>
       <c r="E2" t="n">
-        <v>28.63</v>
+        <v>28.6331</v>
       </c>
       <c r="F2" t="n">
-        <v>12.59</v>
+        <v>12.5918</v>
       </c>
       <c r="G2" t="n">
         <v>19</v>
       </c>
       <c r="H2" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>To be added</t>
-        </is>
+        <v>0.1064</v>
       </c>
     </row>
     <row r="3">
@@ -529,21 +519,16 @@
         <v>39320</v>
       </c>
       <c r="E3" t="n">
-        <v>2636.5</v>
+        <v>2636.5042</v>
       </c>
       <c r="F3" t="n">
-        <v>2185.27</v>
+        <v>2185.2696</v>
       </c>
       <c r="G3" t="n">
         <v>1693</v>
       </c>
       <c r="H3" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>To be added</t>
-        </is>
+        <v>0.1333</v>
       </c>
     </row>
     <row r="4">
@@ -562,21 +547,16 @@
         <v>6445</v>
       </c>
       <c r="E4" t="n">
-        <v>537.87</v>
+        <v>537.8706</v>
       </c>
       <c r="F4" t="n">
-        <v>421.39</v>
+        <v>421.3851</v>
       </c>
       <c r="G4" t="n">
         <v>351</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>To be added</t>
-        </is>
+        <v>0.0497</v>
       </c>
     </row>
     <row r="5">
@@ -595,21 +575,16 @@
         <v>35682</v>
       </c>
       <c r="E5" t="n">
-        <v>1424.95</v>
+        <v>1424.9469</v>
       </c>
       <c r="F5" t="n">
-        <v>1133.21</v>
+        <v>1133.2085</v>
       </c>
       <c r="G5" t="n">
         <v>935</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.025</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>To be added</t>
-        </is>
+        <v>-0.0253</v>
       </c>
     </row>
     <row r="6">
@@ -628,21 +603,16 @@
         <v>6082</v>
       </c>
       <c r="E6" t="n">
-        <v>499.43</v>
+        <v>499.4335</v>
       </c>
       <c r="F6" t="n">
-        <v>382.3</v>
+        <v>382.2992</v>
       </c>
       <c r="G6" t="n">
         <v>324</v>
       </c>
       <c r="H6" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>To be added</t>
-        </is>
+        <v>0.0649</v>
       </c>
     </row>
     <row r="7">
@@ -661,21 +631,16 @@
         <v>15.0001</v>
       </c>
       <c r="E7" t="n">
-        <v>3.87</v>
+        <v>3.8712</v>
       </c>
       <c r="F7" t="n">
-        <v>1.9</v>
+        <v>1.8993</v>
       </c>
       <c r="G7" t="n">
-        <v>2.18</v>
+        <v>2.1803</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6879999999999999</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>To be added</t>
-        </is>
+        <v>0.6884</v>
       </c>
     </row>
   </sheetData>
